--- a/data/metrics_df.xlsx
+++ b/data/metrics_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,10 +567,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -582,166 +582,376 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17-04-2021</t>
+          <t>14-05-2021</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.33</v>
+        <v>0.4224</v>
       </c>
       <c r="G5" t="n">
-        <v>0.33</v>
+        <v>0.4224</v>
       </c>
       <c r="H5" t="n">
-        <v>0.33</v>
+        <v>0.4224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.08</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Ensino</t>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14-04-2021</t>
+          <t>15-05-2021</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.4315384615384615</v>
+        <v>0.4224</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4315384615384615</v>
+        <v>0.4224</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4315384615384615</v>
+        <v>0.4224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Front-end</t>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>05-04-2021</t>
+          <t>16-05-2021</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.525</v>
+        <v>0.4734782608695652</v>
       </c>
       <c r="G7" t="n">
-        <v>0.525</v>
+        <v>0.4734782608695652</v>
       </c>
       <c r="H7" t="n">
-        <v>0.525</v>
+        <v>0.4734782608695652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Front-end</t>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-05-2021</t>
+          <t>17-04-2021</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.528</v>
+        <v>0.33</v>
       </c>
       <c r="G8" t="n">
-        <v>0.528</v>
+        <v>0.33</v>
       </c>
       <c r="H8" t="n">
-        <v>0.528</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020_2-Projeto-Kokama-Front-end</t>
+          <t>2020_2-Projeto-Kokama-Ensino</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20-05-2021</t>
+          <t>14-04-2021</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.51</v>
+        <v>0.4315384615384615</v>
       </c>
       <c r="G9" t="n">
-        <v>0.51</v>
+        <v>0.4315384615384615</v>
       </c>
       <c r="H9" t="n">
-        <v>0.51</v>
+        <v>0.4315384615384615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Ensino</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14-05-2021</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Ensino</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15-05-2021</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Front-end</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>05-04-2021</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Front-end</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>11-05-2021</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Front-end</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12-05-2021</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.528</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Front-end</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15-05-2021</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>0.5</v>
       </c>
-      <c r="B10" t="n">
+      <c r="G15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Front-end</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Front-end</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>23-03-2021</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F17" t="n">
         <v>0.495</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G17" t="n">
         <v>0.495</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H17" t="n">
         <v>0.495</v>
       </c>
     </row>

--- a/data/metrics_df.xlsx
+++ b/data/metrics_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>m7</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>m9</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>repository</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ncloc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>asc1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ac1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
@@ -485,23 +500,32 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>05-04-2021</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>465</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.4242857142857143</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>0.4242857142857143</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>0.4242857142857143</v>
       </c>
     </row>
@@ -515,84 +539,111 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>06-04-2021</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>308</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.4714285714285714</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>0.4714285714285714</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>0.4714285714285714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Traducao</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>23-03-2021</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4160869565217392</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4160869565217392</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14-05-2021</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4160869565217392</v>
+        <v>330</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4714285714285714</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4714285714285714</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4714285714285714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2020_2-Projeto-Kokama-Usuario</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>14-05-2021</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4224</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4224</v>
+      <c r="D5" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Traducao</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23-03-2021</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>0.4224</v>
+        <v>336</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4160869565217392</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4160869565217392</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4160869565217392</v>
       </c>
     </row>
     <row r="6">
@@ -605,144 +656,189 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Usuario</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15-05-2021</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>14-05-2021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>570</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.4224</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>0.4224</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>0.4224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.08</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Usuario</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>16-05-2021</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4734782608695652</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4734782608695652</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15-05-2021</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>0.4734782608695652</v>
+        <v>531</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4224</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4224</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Usuario</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>17-04-2021</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.33</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>16-05-2021</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>0.33</v>
+        <v>687</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4734782608695652</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.4734782608695652</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4734782608695652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2307692307692308</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2020_2-Projeto-Kokama-Ensino</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>14-04-2021</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4315384615384615</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4315384615384615</v>
+      <c r="D9" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Usuario</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>17-04-2021</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>0.4315384615384615</v>
+        <v>24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Ensino</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14-05-2021</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.465</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>14-04-2021</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>0.465</v>
+        <v>371</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4315384615384615</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4315384615384615</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4315384615384615</v>
       </c>
     </row>
     <row r="11">
@@ -755,144 +851,189 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Ensino</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>15-05-2021</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>14-05-2021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>332</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.465</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>0.465</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="n">
         <v>0.465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2020_2-Projeto-Kokama-Front-end</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>05-04-2021</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.525</v>
+      <c r="D12" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Ensino</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>15-05-2021</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>0.525</v>
+        <v>359</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Front-end</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>11-05-2021</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.51</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>05-04-2021</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>0.51</v>
+        <v>1071</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Front-end</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>12-05-2021</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.528</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>11-05-2021</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>0.528</v>
+        <v>1628</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Front-end</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15-05-2021</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.5</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12-05-2021</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5</v>
+        <v>1160</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.528</v>
       </c>
     </row>
     <row r="16">
@@ -900,58 +1041,115 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Front-end</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.51</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>15-05-2021</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>0.51</v>
+        <v>1673</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2020_2-Projeto-Kokama-Front-end</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1627</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>0.5</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>2020_2-Projeto-Kokama-Front-end</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>23-03-2021</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="H18" t="n">
+        <v>429</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.495</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J18" t="n">
         <v>0.495</v>
       </c>
-      <c r="H17" t="n">
+      <c r="K18" t="n">
         <v>0.495</v>
       </c>
     </row>
